--- a/Epam_Task7/Resources/Report2.xlsx
+++ b/Epam_Task7/Resources/Report2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\C#\EPAM\EPAM_Task7\Task7\Epam_Task7\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA638302-C78D-46E0-A7FD-53E5C3534845}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B159AC-9C3D-452D-B2F1-9A1456B8719C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{A990C9B2-5ADC-47D1-9606-2F6EED56B093}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{EFA58DC8-F564-417F-9B7C-10AD261EB192}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,30 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>Group</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Seeion</t>
+  </si>
+  <si>
+    <t>Examainer</t>
   </si>
   <si>
     <t>Average Mark</t>
   </si>
   <si>
-    <t>Min Mark</t>
-  </si>
-  <si>
-    <t>Max Mark</t>
-  </si>
-  <si>
-    <t>IP-32</t>
-  </si>
-  <si>
-    <t>IP-21</t>
-  </si>
-  <si>
-    <t>IP-31</t>
+    <t>Grishchenko Gennady Pavlovich</t>
+  </si>
+  <si>
+    <t>Fedorov Nikolay Vladimirovich</t>
+  </si>
+  <si>
+    <t>_x000D_
+Belov Denis Khristoforovich</t>
+  </si>
+  <si>
+    <t>_x000D_
+Pavlov Ruslan Artemovich</t>
   </si>
 </sst>
 </file>
@@ -85,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,14 +402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F9D7DF-AE8A-434E-B70E-EE7093A9C8F3}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD18E74-8660-49CC-BEEE-D037E0537F1F}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,68 +419,52 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>5.75</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5">
         <v>5</v>
-      </c>
-      <c r="C4">
-        <v>5.5</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E4">
-    <sortCondition ref="D1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>